--- a/result_record.xlsx
+++ b/result_record.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="task_261_vonet_ce_custom_210_241" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="task_261_vonet_wce_custom_210_241" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="tsk261_new_unet_ce_custom_asm_150_230_20" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="tsk261_new_unet_wce_custom_asm_test" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="tsk261_new_unet_wce_custom_asm_test_150_230_20" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="task_261_new_wce_bg_avg_custom" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="task110_asm" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="task_261_vonet_t9_con_ce_custom_210_270" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="task110_brats_com_unet_resid" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="task_261_vonet_wfl_custom_210_240" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="204">
   <si>
     <t xml:space="preserve">brats_mbr_brats_seg_patchedmy_balanced_random_crop</t>
   </si>
@@ -348,10 +349,16 @@
     <t xml:space="preserve">UNet3DB_loc</t>
   </si>
   <si>
+    <t xml:space="preserve">appro</t>
+  </si>
+  <si>
     <t xml:space="preserve">assmble</t>
   </si>
   <si>
     <t xml:space="preserve">task_261_new_ce_custom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to fix</t>
   </si>
   <si>
     <t xml:space="preserve">tsk261_new_unet_wce_custom</t>
@@ -409,6 +416,39 @@
   </si>
   <si>
     <t xml:space="preserve"># we can resize the image into certain size like 72*72*72 to 144*144*144 then using 3*3 kernel with stride 2 to get 72*72 then concatenate it with the patched image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task_262_vonet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task_262_vonet_wce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task_262_vonet_t9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task_262_vonet_t9wce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task_263_vonet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task_263_vonet_wce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task_263_vonet_t9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task_263_vonet_t9_we</t>
   </si>
   <si>
     <t xml:space="preserve">Label</t>
@@ -610,7 +650,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -647,6 +687,11 @@
       <color rgb="FF6A8759"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Albany AMT;Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11.5"/>
@@ -703,7 +748,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -724,15 +769,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -813,19 +862,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T87"/>
+  <dimension ref="A1:T140"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E130" activeCellId="0" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.6836734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.0612244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1708,13 +1757,25 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I58" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>75.2</v>
+      </c>
       <c r="N58" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>8</v>
@@ -1737,28 +1798,31 @@
       <c r="L59" s="0" t="n">
         <v>77.2</v>
       </c>
-      <c r="N59" s="0" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="O59" s="0" t="n">
-        <v>90.1</v>
+      <c r="M59" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N59" s="5" t="n">
+        <v>0.749220652173913</v>
+      </c>
+      <c r="O59" s="5" t="n">
+        <v>0.881765869565217</v>
       </c>
       <c r="P59" s="0" t="n">
-        <v>80.4</v>
-      </c>
-      <c r="R59" s="5" t="n">
+        <v>0.78661</v>
+      </c>
+      <c r="R59" s="6" t="n">
         <v>0.78585</v>
       </c>
-      <c r="S59" s="5" t="n">
+      <c r="S59" s="6" t="n">
         <v>0.90499</v>
       </c>
-      <c r="T59" s="5" t="n">
+      <c r="T59" s="6" t="n">
         <v>0.837</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="6" t="s">
-        <v>108</v>
+      <c r="B60" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>8</v>
@@ -1781,10 +1845,19 @@
       <c r="L60" s="0" t="n">
         <v>76.7</v>
       </c>
+      <c r="N60" s="0" t="n">
+        <v>0.76566</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>0.88134</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>0.76796</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>8</v>
@@ -1805,12 +1878,12 @@
         <v>76.7</v>
       </c>
       <c r="Q61" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="6" t="s">
-        <v>111</v>
+      <c r="B62" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>8</v>
@@ -1827,13 +1900,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>72.16</v>
@@ -1850,75 +1923,2348 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>0.7475</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>0.8233</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>0.8195</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>0.8141</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>0.8172</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D129" s="0" t="n">
+        <v>0.8199</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>0.9275</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>0.9274</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>92.49</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="0" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M52"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.9030612244898"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.92699</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.91307</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.94106</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.98884</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.88888</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.9785</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.99837</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.9947</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.99875</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>4.24264</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.88721</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.9212</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.95188</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.93504</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.98513</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.9391</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.99927</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.99757</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.99976</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>2.44949</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.88762</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.85248</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.92384</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.94216</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.94626</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.95631</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.99887</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.98975</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.99912</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>90.28067</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>99.69052</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.42109</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.89715</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.92999</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.91539</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.96737</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.96615</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.96861</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.9788</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.99255</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>3.4641</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>6.55744</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>4.3589</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.80654</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.89014</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.64628</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.83459</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.95198</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.94037</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.99977</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.99328</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.99869</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>3.60555</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>7.87401</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.79599</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.91469</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.93791</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.71261</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.99783</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.90293</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.99915</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.9847</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.99955</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>2.23607</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>2.44949</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.88407</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.91376</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.95508</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.90213</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.98003</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.96946</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.99675</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.98611</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.99746</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>2.23607</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>1.73205</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.81616</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.93394</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.93781</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.99702</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.95257</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.98368</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.99026</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.98796</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.99566</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>2.23607</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>2.44949</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.82914</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.91517</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.8929</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.87913</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.93984</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.92929</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.99947</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.99519</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.99951</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.85383</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.91111</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.85561</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.85932</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.88874</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.86349</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.99583</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.99362</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>2.23607</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>6.87715</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>6.08276</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.77474</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.71377</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.81643</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.84644</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.63013</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.87296</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.99921</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.99866</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1.73205</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>7.48331</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>2.44949</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.83544</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.90742</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.88366</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.84411</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.96149</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.94577</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.99931</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.99522</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.99869</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1.73205</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>3.76749</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>3.54897</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.74644</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.85767</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.77822</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.97636</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.84683</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.86718</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.99857</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.99073</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.99853</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>2.82843</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>4.47214</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>10.63015</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.51324</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.8786</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.86137</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.66878</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.86286</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.77695</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.99007</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.99684</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.99919</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>4.3589</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>4.12311</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>3.74166</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.89902</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.90348</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.91429</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.91606</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.96725</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.99627</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.98516</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>7.28011</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>2.82843</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.6598</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.70688</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.77418</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.85322</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.57631</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.8893</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.99668</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.99757</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.99541</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>9.94987</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>12.76715</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>4.89898</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.94531</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.75448</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.91089</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.6175</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.99994</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.99713</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.99835</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>3.60555</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>17.02939</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.93435</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.80746</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.9536</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.97375</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.99945</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.9808</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.98424</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.99924</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>86.15103</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.81615</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.97446</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.92815</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.79503</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.98875</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.95393</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.99899</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.99784</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>2.23607</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.94515</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.95821</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.94743</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.93791</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.96351</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.93703</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.99794</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.99392</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0.99754</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>2.44949</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>3.16228</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.94815</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.61924</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.93296</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.5171</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.99997</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.99727</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0.99407</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>2.23607</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>14.18273</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.85621</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.86864</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.84773</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.79757</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.87555</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0.74559</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.99876</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0.99286</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0.99962</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>2.82843</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>22.93469</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>4.3589</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.91137</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.95557</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.95468</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.89223</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.95958</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.94296</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.99873</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.9961</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0.99918</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.58125</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.8428</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.58921</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.44545</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.9713</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.42579</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.9999</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.99782</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0.99997</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>4.47214</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>4.69042</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.89259</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.95685</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.94236</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.86138</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.97626</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.99605</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.99487</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0.99443</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>2.23607</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.93883</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.90786</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.94475</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.99049</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.99802</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0.9895</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.9988</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.99221</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0.99889</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>2.82843</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.91284</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.96224</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.94122</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.86297</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.98566</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.91031</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.99895</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.99503</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0.99886</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>1.73205</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>2.23607</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.91361</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.91806</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.78445</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0.91242</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.96424</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0.67711</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.99825</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.99015</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0.99819</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>1.73205</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>2.82843</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>46.57252</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.90034</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.90035</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.93105</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.85633</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.91925</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0.89429</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.99724</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.98781</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0.9976</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>2.82843</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>8.24621</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>4.58258</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.93233</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.97013</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0.9607</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0.91337</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.95889</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0.96001</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0.99908</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0.99919</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0.99903</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.01093</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.96497</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.92297</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.03571</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0.97287</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0.90446</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0.99988</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0.9964</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0.99752</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>41.99881</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.89261</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.95108</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.57033</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.84475</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.9659</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0.40265</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0.99954</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0.99526</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>0.99979</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>2.82843</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>16.1431</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.82881</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.85919</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.82457</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.76715</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0.9052</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0.74392</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.99891</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.99021</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0.99914</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>4.3589</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>3.60555</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>5.83095</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.92379</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.82805</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0.97314</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0.97234</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0.99754</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0.9969</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>2.23607</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.39789</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0.30051</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.99948</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>6.78233</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.11243</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.76986</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.73577</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0.06297</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0.65385</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0.61275</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0.99995</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0.99553</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0.99689</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>22.36177</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>13.0384</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>10.29563</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.78565</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.94865</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.60159</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.92389</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.95521</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0.48918</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0.99343</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0.99014</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0.9848</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>2.23607</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>11.04536</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0.46576</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.89993</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.57135</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0.3592</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0.82612</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0.40195</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0.99785</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.99731</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0.99865</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>11.74734</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>8.77496</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>21.74856</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.9325</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0.98045</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0.9998</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0.99795</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0.9998</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>96.15612</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>127.78752</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.93024</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.00135</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0.88434</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0.00068</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0.99944</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>2.23607</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>11.74734</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.92438</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.94967</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.71277</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.93325</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0.94219</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0.56267</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0.99935</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0.9963</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0.99974</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>2.82843</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>10.98634</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.87317</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.94546</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0.71369</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0.90376</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0.92219</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>0.61418</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>0.99832</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0.99664</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0.99754</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>1.73205</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>2.44949</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>18.38478</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.93152</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.91067</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.8988</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0.98358</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0.95733</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>0.84518</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0.99932</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0.9918</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>0.99961</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>2.82843</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>5.09902</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0.88384</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.86022</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0.81651</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0.95635</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0.98934</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>0.78161</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>0.99851</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0.98796</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>0.99865</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>5.09902</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>5.65685</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0.83209</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.85304</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.67419</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0.95877</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0.83694</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0.52055</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0.99727</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0.99097</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>0.99942</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>2.23607</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>7.07107</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>19.26136</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0.69591</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.66994</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0.55168</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0.62042</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0.97854</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>0.41195</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>0.99926</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0.9645</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>0.99872</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>75.71063</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>12.24745</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.70238</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.88508</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0.77291</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0.78275</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0.90741</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0.75071</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>0.9976</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0.99287</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>0.99787</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>4.04065</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>11.81925</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>12.18901</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0.31839</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.10049</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0.24171</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.27908</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0.12974</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>0.27418</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>0.00489</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0.00638</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>0.00267</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>7.23396</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>23.8999</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>23.77076</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0.83377</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.91209</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0.85167</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0.87913</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0.95389</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>0.88113</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>0.99893</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>0.99511</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>0.9987</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>3.60555</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>4.69042</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0.66883</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.86232</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0.7963</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0.89296</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0.61311</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0.99787</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0.99017</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>0.99752</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>2.28942</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>2.44949</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0.90001</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.94542</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0.93789</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0.93648</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0.97308</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>0.95189</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>0.99944</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>0.99723</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>0.99937</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>7.02259</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>11.04536</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1933,71 +4279,69 @@
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.51530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.51530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7959183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.4897959183673"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.9030612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.94169</v>
@@ -2038,7 +4382,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.88445</v>
@@ -2079,7 +4423,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.88099</v>
@@ -2120,7 +4464,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.44637</v>
@@ -2161,7 +4505,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.81308</v>
@@ -2202,7 +4546,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.76082</v>
@@ -2243,7 +4587,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.88428</v>
@@ -2284,7 +4628,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.84117</v>
@@ -2325,7 +4669,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.84349</v>
@@ -2366,7 +4710,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.85564</v>
@@ -2407,7 +4751,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.83005</v>
@@ -2448,7 +4792,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.82634</v>
@@ -2489,7 +4833,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.79652</v>
@@ -2530,7 +4874,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.44735</v>
@@ -2571,7 +4915,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.89636</v>
@@ -2612,7 +4956,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.69897</v>
@@ -2653,7 +4997,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -2688,7 +5032,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.91297</v>
@@ -2729,7 +5073,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.81596</v>
@@ -2770,7 +5114,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.92812</v>
@@ -2811,7 +5155,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -2849,7 +5193,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.83785</v>
@@ -2890,7 +5234,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.89514</v>
@@ -2931,7 +5275,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.43329</v>
@@ -2972,7 +5316,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.87179</v>
@@ -3013,7 +5357,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.95765</v>
@@ -3054,7 +5398,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.89896</v>
@@ -3095,7 +5439,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.89335</v>
@@ -3136,7 +5480,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.87037</v>
@@ -3177,7 +5521,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.9164</v>
@@ -3218,7 +5562,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -3259,7 +5603,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.86613</v>
@@ -3300,7 +5644,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.85371</v>
@@ -3341,7 +5685,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -3379,7 +5723,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
@@ -3414,7 +5758,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.09112</v>
@@ -3455,7 +5799,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.82364</v>
@@ -3496,7 +5840,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.55369</v>
@@ -3537,7 +5881,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
@@ -3572,7 +5916,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.01235</v>
@@ -3613,7 +5957,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.92273</v>
@@ -3654,7 +5998,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.87018</v>
@@ -3695,7 +6039,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.93665</v>
@@ -3736,7 +6080,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.91129</v>
@@ -3777,7 +6121,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.86538</v>
@@ -3818,7 +6162,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.60685</v>
@@ -3859,7 +6203,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.74333</v>
@@ -3900,7 +6244,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.28819</v>
@@ -3941,7 +6285,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.86051</v>
@@ -3982,7 +6326,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.76974</v>
@@ -4023,7 +6367,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.89831</v>
@@ -4080,60 +6424,60 @@
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.93082</v>
@@ -4174,7 +6518,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.88892</v>
@@ -4215,7 +6559,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.88576</v>
@@ -4256,7 +6600,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.46025</v>
@@ -4297,7 +6641,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.78418</v>
@@ -4338,7 +6682,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.77232</v>
@@ -4379,7 +6723,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.88613</v>
@@ -4420,7 +6764,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.83535</v>
@@ -4461,7 +6805,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.82355</v>
@@ -4502,7 +6846,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.84935</v>
@@ -4543,7 +6887,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.75485</v>
@@ -4584,7 +6928,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.85048</v>
@@ -4625,7 +6969,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.73524</v>
@@ -4666,7 +7010,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.48813</v>
@@ -4707,7 +7051,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.90148</v>
@@ -4748,7 +7092,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.59683</v>
@@ -4789,7 +7133,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -4824,7 +7168,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.92052</v>
@@ -4865,7 +7209,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.79702</v>
@@ -4906,7 +7250,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.9304</v>
@@ -4947,7 +7291,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -4985,7 +7329,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.83</v>
@@ -5026,7 +7370,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.90217</v>
@@ -5067,7 +7411,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.28571</v>
@@ -5108,7 +7452,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.86184</v>
@@ -5149,7 +7493,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.95027</v>
@@ -5190,7 +7534,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.89695</v>
@@ -5231,7 +7575,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.88461</v>
@@ -5272,7 +7616,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.86777</v>
@@ -5313,7 +7657,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.90552</v>
@@ -5354,7 +7698,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -5395,7 +7739,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.84966</v>
@@ -5436,7 +7780,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.8728</v>
@@ -5477,7 +7821,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -5515,7 +7859,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
@@ -5550,7 +7894,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.17634</v>
@@ -5591,7 +7935,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.8113</v>
@@ -5632,7 +7976,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.5984</v>
@@ -5673,7 +8017,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
@@ -5708,7 +8052,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -5749,7 +8093,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.92235</v>
@@ -5790,7 +8134,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.87356</v>
@@ -5831,7 +8175,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.93253</v>
@@ -5872,7 +8216,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.8981</v>
@@ -5913,7 +8257,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.86946</v>
@@ -5954,7 +8298,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.52852</v>
@@ -5995,7 +8339,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.73499</v>
@@ -6036,7 +8380,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.28803</v>
@@ -6077,7 +8421,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.85616</v>
@@ -6118,7 +8462,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.74014</v>
@@ -6159,7 +8503,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.90063</v>
@@ -6214,73 +8558,71 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.51530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.51530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7959183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.4897959183673"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.9030612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.93675</v>
@@ -6321,7 +8663,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.88802</v>
@@ -6362,7 +8704,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.88659</v>
@@ -6403,7 +8745,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.42113</v>
@@ -6444,7 +8786,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.75994</v>
@@ -6485,7 +8827,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.77</v>
@@ -6526,7 +8868,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.89089</v>
@@ -6567,7 +8909,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.82719</v>
@@ -6608,7 +8950,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.83528</v>
@@ -6649,7 +8991,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.86582</v>
@@ -6690,7 +9032,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.79047</v>
@@ -6731,7 +9073,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.83591</v>
@@ -6772,7 +9114,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8051</v>
@@ -6813,7 +9155,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.4943</v>
@@ -6854,7 +9196,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.89889</v>
@@ -6895,7 +9237,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.69718</v>
@@ -6936,7 +9278,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -6971,7 +9313,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.92846</v>
@@ -7012,7 +9354,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.83127</v>
@@ -7053,7 +9395,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.93748</v>
@@ -7094,7 +9436,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -7132,7 +9474,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.84631</v>
@@ -7173,7 +9515,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.90625</v>
@@ -7214,7 +9556,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.3898</v>
@@ -7255,7 +9597,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.88069</v>
@@ -7296,7 +9638,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.95708</v>
@@ -7337,7 +9679,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.90423</v>
@@ -7378,7 +9720,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.8991</v>
@@ -7419,7 +9761,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.87953</v>
@@ -7460,7 +9802,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.92034</v>
@@ -7501,7 +9843,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.01504</v>
@@ -7542,7 +9884,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.88505</v>
@@ -7583,7 +9925,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.84793</v>
@@ -7624,7 +9966,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -7661,652 +10003,663 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="B36" s="0" t="n">
-        <v>0.05259</v>
+        <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.724</v>
+        <v>0</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.75119</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>0.02734</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>0.57997</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>0.61654</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0.99999</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>0.99779</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>0.99853</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <v>7.87401</v>
-      </c>
-      <c r="L36" s="0" t="n">
-        <v>15.84298</v>
-      </c>
-      <c r="M36" s="0" t="n">
-        <v>8.94427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.82423</v>
+        <v>0.05259</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.94941</v>
+        <v>0.724</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.72668</v>
+        <v>0.75119</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>0.92582</v>
+        <v>0.02734</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>0.94504</v>
+        <v>0.57997</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0.65066</v>
+        <v>0.61654</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.99508</v>
+        <v>0.99999</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>0.9923</v>
+        <v>0.99779</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.98447</v>
+        <v>0.99853</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>2</v>
+        <v>7.87401</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>3</v>
+        <v>15.84298</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>10.29563</v>
+        <v>8.94427</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.65509</v>
+        <v>0.82423</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.89053</v>
+        <v>0.94941</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0.52052</v>
+        <v>0.72668</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>0.58284</v>
+        <v>0.92582</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0.80583</v>
+        <v>0.94504</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0.35227</v>
+        <v>0.65066</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.99769</v>
+        <v>0.99508</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>0.99892</v>
+        <v>0.9923</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.99966</v>
+        <v>0.98447</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>11.78983</v>
+        <v>2</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>8.24621</v>
+        <v>3</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>22.02272</v>
+        <v>10.29563</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>1</v>
+        <v>0.65509</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0.93943</v>
+        <v>0.89053</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0</v>
+        <v>0.52052</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1</v>
+        <v>0.58284</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0.88885</v>
+        <v>0.80583</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0</v>
+        <v>0.35227</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1</v>
+        <v>0.99769</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>0.99994</v>
+        <v>0.99892</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>1</v>
+        <v>0.99966</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>11.78983</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>1.73205</v>
+        <v>8.24621</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>22.02272</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.19214</v>
+        <v>1</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.94138</v>
+        <v>0.93943</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.51385</v>
+        <v>0</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>0.13665</v>
+        <v>1</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0.92566</v>
+        <v>0.88885</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0.82206</v>
+        <v>0</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.99997</v>
+        <v>1</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0.99865</v>
+        <v>0.99994</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.99883</v>
-      </c>
-      <c r="K40" s="0" t="n">
-        <v>16.54424</v>
+        <v>1</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>2.23607</v>
-      </c>
-      <c r="M40" s="0" t="n">
-        <v>9</v>
+        <v>1.73205</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.92196</v>
+        <v>0.19214</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0.94868</v>
+        <v>0.94138</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0.69845</v>
+        <v>0.51385</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>0.91434</v>
+        <v>0.13665</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0.93768</v>
+        <v>0.92566</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0.54285</v>
+        <v>0.82206</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.99948</v>
+        <v>0.99997</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>0.99656</v>
+        <v>0.99865</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0.99982</v>
+        <v>0.99883</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>1.41421</v>
+        <v>16.54424</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>2.82843</v>
+        <v>2.23607</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>11.44552</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.86558</v>
+        <v>0.92196</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0.94244</v>
+        <v>0.94868</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.72796</v>
+        <v>0.69845</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>0.87385</v>
+        <v>0.91434</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0.9124</v>
+        <v>0.93768</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0.58965</v>
+        <v>0.54285</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.99854</v>
+        <v>0.99948</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>0.99719</v>
+        <v>0.99656</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0.9993</v>
+        <v>0.99982</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>1.77224</v>
+        <v>1.41421</v>
       </c>
       <c r="L42" s="0" t="n">
         <v>2.82843</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>10.86278</v>
+        <v>11.44552</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.93648</v>
+        <v>0.86558</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.8713</v>
+        <v>0.94244</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0.87083</v>
+        <v>0.72796</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>0.97105</v>
+        <v>0.87385</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0.96048</v>
+        <v>0.9124</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0.83483</v>
+        <v>0.58965</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.99945</v>
+        <v>0.99854</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>0.9862</v>
+        <v>0.99719</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>0.99909</v>
+        <v>0.9993</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>1</v>
+        <v>1.77224</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>55.76737</v>
+        <v>2.82843</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>65.74343</v>
+        <v>10.86278</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.91736</v>
+        <v>0.93648</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.91113</v>
+        <v>0.8713</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0.83918</v>
+        <v>0.87083</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>0.92233</v>
+        <v>0.97105</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0.97004</v>
+        <v>0.96048</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>0.7632</v>
+        <v>0.83483</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.99936</v>
+        <v>0.99945</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>0.99383</v>
+        <v>0.9862</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>0.99943</v>
+        <v>0.99909</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>3</v>
+        <v>55.76737</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>5.38516</v>
+        <v>65.74343</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.8554</v>
+        <v>0.91736</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.86454</v>
+        <v>0.91113</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0.68106</v>
+        <v>0.83918</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>0.96423</v>
+        <v>0.92233</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0.84507</v>
+        <v>0.97004</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.52891</v>
+        <v>0.7632</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.99771</v>
+        <v>0.99936</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>0.99208</v>
+        <v>0.99383</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0.9994</v>
+        <v>0.99943</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>1.73205</v>
+        <v>2</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>6.9282</v>
+        <v>3</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>20.02498</v>
+        <v>5.38516</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.6113</v>
+        <v>0.8554</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0.81773</v>
+        <v>0.86454</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0.59226</v>
+        <v>0.68106</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>0.47129</v>
+        <v>0.96423</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>0.95619</v>
+        <v>0.84507</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.44385</v>
+        <v>0.52891</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.99968</v>
+        <v>0.99771</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>0.9856</v>
+        <v>0.99208</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>0.99913</v>
+        <v>0.9994</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>3.60555</v>
+        <v>1.73205</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>73.16625</v>
+        <v>6.9282</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>9.27362</v>
+        <v>20.02498</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.74365</v>
+        <v>0.6113</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>0.90136</v>
+        <v>0.81773</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0.80409</v>
+        <v>0.59226</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>0.76284</v>
+        <v>0.47129</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0.88252</v>
+        <v>0.95619</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0.75786</v>
+        <v>0.44385</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0.99801</v>
+        <v>0.99968</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>0.996</v>
+        <v>0.9856</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>0.99857</v>
+        <v>0.99913</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>4.24501</v>
+        <v>3.60555</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>6.60357</v>
+        <v>73.16625</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>7.76622</v>
+        <v>9.27362</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0.28136</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>0.07371</v>
+        <v>199</v>
+      </c>
+      <c r="B48" s="5" t="n">
+        <v>0.749220652173913</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>0.881765869565217</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0.19061</v>
+        <v>0.78661</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>0.26913</v>
+        <v>0.76284</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>0.11332</v>
+        <v>0.88252</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0.22408</v>
+        <v>0.75786</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0.00465</v>
+        <v>0.99801</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>0.00398</v>
+        <v>0.996</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0.00245</v>
+        <v>0.99857</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>8.66816</v>
+        <v>4.24501</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>13.16243</v>
+        <v>6.60357</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>11.96902</v>
+        <v>7.76622</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.8554</v>
+        <v>0.28136</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0.92305</v>
+        <v>0.07371</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>0.87083</v>
+        <v>0.19061</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>0.85972</v>
+        <v>0.26913</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0.91626</v>
+        <v>0.11332</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>0.82206</v>
+        <v>0.22408</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0.99936</v>
+        <v>0.00465</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>0.99757</v>
+        <v>0.00398</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>0.9993</v>
+        <v>0.00245</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>1.77224</v>
+        <v>8.66816</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>2.82843</v>
+        <v>13.16243</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>3.08114</v>
+        <v>11.96902</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.75994</v>
+        <v>0.8554</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0.89053</v>
+        <v>0.92305</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0.72796</v>
+        <v>0.87083</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>0.7774</v>
+        <v>0.85972</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>0.87289</v>
+        <v>0.91626</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>0.65066</v>
+        <v>0.82206</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>0.99835</v>
+        <v>0.99936</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>0.99437</v>
+        <v>0.99757</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>0.99858</v>
+        <v>0.9993</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>1.41421</v>
+        <v>1.77224</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>2</v>
+        <v>2.82843</v>
       </c>
       <c r="M50" s="0" t="n">
-        <v>2.39613</v>
+        <v>3.08114</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B51" s="0" t="n">
+        <v>0.75994</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.89053</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0.72796</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0.7774</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0.87289</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0.65066</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0.99835</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0.99437</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>0.99858</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>2.39613</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="0" t="n">
         <v>0.90423</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C52" s="0" t="n">
         <v>0.9423</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D52" s="0" t="n">
         <v>0.93858</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E52" s="0" t="n">
         <v>0.9158</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F52" s="0" t="n">
         <v>0.94704</v>
       </c>
-      <c r="G51" s="0" t="n">
+      <c r="G52" s="0" t="n">
         <v>0.92694</v>
       </c>
-      <c r="H51" s="0" t="n">
+      <c r="H52" s="0" t="n">
         <v>0.99958</v>
       </c>
-      <c r="I51" s="0" t="n">
+      <c r="I52" s="0" t="n">
         <v>0.99871</v>
       </c>
-      <c r="J51" s="0" t="n">
+      <c r="J52" s="0" t="n">
         <v>0.9996</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="K52" s="0" t="n">
         <v>3.16228</v>
       </c>
-      <c r="L51" s="0" t="n">
+      <c r="L52" s="0" t="n">
         <v>5.38516</v>
       </c>
-      <c r="M51" s="0" t="n">
+      <c r="M52" s="0" t="n">
         <v>9.0684</v>
       </c>
     </row>
@@ -8328,60 +10681,60 @@
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.93519</v>
@@ -8422,7 +10775,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.88741</v>
@@ -8463,7 +10816,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.88875</v>
@@ -8504,7 +10857,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.39846</v>
@@ -8545,7 +10898,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.71643</v>
@@ -8586,7 +10939,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.78837</v>
@@ -8627,7 +10980,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.89437</v>
@@ -8668,7 +11021,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.81453</v>
@@ -8709,7 +11062,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.84012</v>
@@ -8750,7 +11103,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.87426</v>
@@ -8791,7 +11144,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.81976</v>
@@ -8832,7 +11185,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.84816</v>
@@ -8873,7 +11226,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.78738</v>
@@ -8914,7 +11267,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.49972</v>
@@ -8955,7 +11308,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.90035</v>
@@ -8996,7 +11349,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.68111</v>
@@ -9037,7 +11390,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
@@ -9075,7 +11428,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.92897</v>
@@ -9116,7 +11469,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.83856</v>
@@ -9157,7 +11510,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.94397</v>
@@ -9198,7 +11551,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -9236,7 +11589,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.85668</v>
@@ -9277,7 +11630,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.90805</v>
@@ -9318,7 +11671,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.35925</v>
@@ -9359,7 +11712,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.88859</v>
@@ -9400,7 +11753,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.94596</v>
@@ -9441,7 +11794,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.91037</v>
@@ -9482,7 +11835,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.92138</v>
@@ -9523,7 +11876,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.88318</v>
@@ -9564,7 +11917,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.93196</v>
@@ -9605,7 +11958,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -9646,7 +11999,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.88922</v>
@@ -9687,7 +12040,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.82648</v>
@@ -9728,7 +12081,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -9766,7 +12119,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
@@ -9801,7 +12154,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.1535</v>
@@ -9842,7 +12195,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.79417</v>
@@ -9883,7 +12236,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.51395</v>
@@ -9924,7 +12277,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
@@ -9959,7 +12312,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -10000,7 +12353,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.92413</v>
@@ -10041,7 +12394,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.87142</v>
@@ -10082,7 +12435,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.91968</v>
@@ -10123,7 +12476,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.90659</v>
@@ -10164,7 +12517,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.85825</v>
@@ -10205,7 +12558,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.67175</v>
@@ -10246,7 +12599,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.76566</v>
@@ -10287,7 +12640,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.26933</v>
@@ -10328,7 +12681,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.87284</v>
@@ -10369,7 +12722,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.78763</v>
@@ -10410,7 +12763,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.91735</v>
@@ -10467,71 +12820,69 @@
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.51530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.51530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7959183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.4897959183673"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.9030612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.92537</v>
@@ -10572,7 +12923,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.8801</v>
@@ -10613,7 +12964,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.87654</v>
@@ -10654,7 +13005,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.38234</v>
@@ -10695,7 +13046,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.81045</v>
@@ -10736,7 +13087,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.79748</v>
@@ -10777,7 +13128,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.89676</v>
@@ -10818,7 +13169,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.81369</v>
@@ -10859,7 +13210,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.83338</v>
@@ -10900,7 +13251,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.85961</v>
@@ -10941,7 +13292,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.82906</v>
@@ -10982,7 +13333,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.85131</v>
@@ -11023,7 +13374,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.77727</v>
@@ -11064,7 +13415,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.51416</v>
@@ -11105,7 +13456,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.90181</v>
@@ -11146,7 +13497,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.68698</v>
@@ -11187,7 +13538,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -11222,7 +13573,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.9283</v>
@@ -11263,7 +13614,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.85297</v>
@@ -11304,7 +13655,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.93709</v>
@@ -11345,7 +13696,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -11383,7 +13734,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.82657</v>
@@ -11424,7 +13775,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.90931</v>
@@ -11465,7 +13816,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.57731</v>
@@ -11506,7 +13857,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.88587</v>
@@ -11547,7 +13898,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.95179</v>
@@ -11588,7 +13939,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.9186</v>
@@ -11629,7 +13980,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.90993</v>
@@ -11670,7 +14021,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.8912</v>
@@ -11711,7 +14062,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.93628</v>
@@ -11752,7 +14103,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -11793,7 +14144,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.89292</v>
@@ -11834,7 +14185,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.87484</v>
@@ -11875,7 +14226,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.02</v>
@@ -11916,7 +14267,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
@@ -11951,7 +14302,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.07817</v>
@@ -11992,7 +14343,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.77758</v>
@@ -12033,7 +14384,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.638</v>
@@ -12074,7 +14425,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -12109,7 +14460,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.04324</v>
@@ -12150,7 +14501,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.92094</v>
@@ -12191,7 +14542,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.86309</v>
@@ -12232,7 +14583,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.89585</v>
@@ -12273,7 +14624,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.90675</v>
@@ -12314,7 +14665,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.82807</v>
@@ -12355,7 +14706,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.65077</v>
@@ -12396,7 +14747,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.72939</v>
@@ -12437,7 +14788,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.30131</v>
@@ -12478,7 +14829,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.85629</v>
@@ -12519,7 +14870,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.70955</v>
@@ -12560,7 +14911,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.90552</v>
@@ -12617,71 +14968,69 @@
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.51530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.51530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7959183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.4897959183673"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.9030612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.94468</v>
@@ -12722,7 +15071,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.88209</v>
@@ -12763,7 +15112,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.89926</v>
@@ -12804,7 +15153,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.4598</v>
@@ -12845,7 +15194,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.79631</v>
@@ -12886,7 +15235,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.79193</v>
@@ -12927,7 +15276,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.89182</v>
@@ -12968,7 +15317,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.82424</v>
@@ -13009,7 +15358,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.84076</v>
@@ -13050,7 +15399,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.86675</v>
@@ -13091,7 +15440,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.82802</v>
@@ -13132,7 +15481,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.82987</v>
@@ -13173,7 +15522,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.78376</v>
@@ -13214,7 +15563,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.5115</v>
@@ -13255,7 +15604,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.89832</v>
@@ -13296,7 +15645,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.63252</v>
@@ -13336,8 +15685,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>156</v>
+      <c r="A18" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -13372,7 +15721,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.92882</v>
@@ -13413,7 +15762,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.82843</v>
@@ -13454,7 +15803,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.94777</v>
@@ -13494,8 +15843,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>160</v>
+      <c r="A22" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -13533,7 +15882,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.84665</v>
@@ -13574,7 +15923,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.909</v>
@@ -13615,7 +15964,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.36686</v>
@@ -13656,7 +16005,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.88038</v>
@@ -13697,7 +16046,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.956</v>
@@ -13738,7 +16087,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.90523</v>
@@ -13779,7 +16128,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.91053</v>
@@ -13820,7 +16169,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.89519</v>
@@ -13861,7 +16210,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.92649</v>
@@ -13902,7 +16251,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -13940,7 +16289,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.85774</v>
@@ -13981,7 +16330,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.87455</v>
@@ -14022,7 +16371,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -14059,8 +16408,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
-        <v>174</v>
+      <c r="A36" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
@@ -14095,7 +16444,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -14133,7 +16482,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.80899</v>
@@ -14174,7 +16523,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.37226</v>
@@ -14214,8 +16563,8 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
-        <v>178</v>
+      <c r="A40" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
@@ -14250,7 +16599,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -14291,7 +16640,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.92367</v>
@@ -14332,7 +16681,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.87295</v>
@@ -14373,7 +16722,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.92947</v>
@@ -14414,7 +16763,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.89193</v>
@@ -14455,7 +16804,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.86543</v>
@@ -14496,7 +16845,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.71994</v>
@@ -14537,7 +16886,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.7413</v>
@@ -14578,7 +16927,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.29894</v>
@@ -14619,7 +16968,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.86609</v>
@@ -14660,7 +17009,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.78581</v>
@@ -14701,7 +17050,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.90805</v>
@@ -14758,71 +17107,69 @@
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N46" activeCellId="0" sqref="N46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.51530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.51530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7959183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.4897959183673"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.9030612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.93996</v>
@@ -14863,7 +17210,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.87352</v>
@@ -14904,7 +17251,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.89918</v>
@@ -14945,7 +17292,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.4751</v>
@@ -14986,7 +17333,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.74862</v>
@@ -15027,7 +17374,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.76126</v>
@@ -15068,7 +17415,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.88106</v>
@@ -15109,7 +17456,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.83783</v>
@@ -15150,7 +17497,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.84502</v>
@@ -15191,7 +17538,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.8655</v>
@@ -15232,7 +17579,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.81572</v>
@@ -15273,7 +17620,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.82154</v>
@@ -15314,7 +17661,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.81523</v>
@@ -15355,7 +17702,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.52648</v>
@@ -15396,7 +17743,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.89466</v>
@@ -15437,7 +17784,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.62938</v>
@@ -15478,7 +17825,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -15513,7 +17860,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.92481</v>
@@ -15554,7 +17901,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.82496</v>
@@ -15595,7 +17942,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.92709</v>
@@ -15636,7 +17983,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -15671,7 +18018,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.85839</v>
@@ -15712,7 +18059,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.90412</v>
@@ -15753,7 +18100,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.324</v>
@@ -15794,7 +18141,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.83716</v>
@@ -15835,7 +18182,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.94955</v>
@@ -15876,7 +18223,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.90198</v>
@@ -15917,7 +18264,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.90502</v>
@@ -15958,7 +18305,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.88915</v>
@@ -15999,7 +18346,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.92613</v>
@@ -16040,7 +18387,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -16081,7 +18428,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.86427</v>
@@ -16122,7 +18469,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.23463</v>
@@ -16163,7 +18510,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -16201,7 +18548,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
@@ -16236,7 +18583,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.01934</v>
@@ -16277,7 +18624,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.78675</v>
@@ -16318,7 +18665,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.24014</v>
@@ -16359,7 +18706,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -16394,7 +18741,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -16435,7 +18782,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.92107</v>
@@ -16476,7 +18823,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.87001</v>
@@ -16517,7 +18864,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.91771</v>
@@ -16558,7 +18905,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.89473</v>
@@ -16599,7 +18946,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.86158</v>
@@ -16640,7 +18987,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.653</v>
@@ -16681,7 +19028,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.67534</v>
@@ -16722,7 +19069,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.33647</v>
@@ -16763,7 +19110,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.84143</v>
@@ -16804,7 +19151,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.55221</v>
@@ -16845,7 +19192,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.89807</v>
@@ -16900,73 +19247,71 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M46" activeCellId="0" sqref="M46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.51530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.51530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7959183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.4897959183673"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.9030612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.93306</v>
@@ -17007,7 +19352,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.88971</v>
@@ -17048,7 +19393,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.8935</v>
@@ -17089,7 +19434,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.41848</v>
@@ -17130,7 +19475,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.81712</v>
@@ -17171,7 +19516,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.79464</v>
@@ -17212,7 +19557,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.88485</v>
@@ -17253,7 +19598,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.82907</v>
@@ -17294,7 +19639,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.83147</v>
@@ -17335,7 +19680,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.85129</v>
@@ -17376,7 +19721,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.80407</v>
@@ -17417,7 +19762,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.84865</v>
@@ -17458,7 +19803,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.79918</v>
@@ -17499,7 +19844,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.47438</v>
@@ -17540,7 +19885,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.89949</v>
@@ -17581,7 +19926,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.68017</v>
@@ -17622,7 +19967,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -17657,7 +20002,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.92546</v>
@@ -17698,7 +20043,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.80243</v>
@@ -17739,7 +20084,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.9396</v>
@@ -17780,7 +20125,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -17818,7 +20163,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.84503</v>
@@ -17859,7 +20204,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.91199</v>
@@ -17900,7 +20245,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.38955</v>
@@ -17941,7 +20286,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.88495</v>
@@ -17982,7 +20327,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.94947</v>
@@ -18023,7 +20368,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.90786</v>
@@ -18064,7 +20409,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.89771</v>
@@ -18105,7 +20450,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.88577</v>
@@ -18146,7 +20491,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.90781</v>
@@ -18187,7 +20532,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -18225,7 +20570,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.86517</v>
@@ -18266,7 +20611,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.65615</v>
@@ -18307,7 +20652,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -18344,652 +20689,663 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C36" s="0" t="n">
-        <v>0.70679</v>
-      </c>
       <c r="D36" s="0" t="n">
-        <v>0.68459</v>
-      </c>
-      <c r="E36" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>0.5577</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>0.53321</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0.99999</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>0.99796</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>0.99855</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <v>47.47999</v>
-      </c>
-      <c r="L36" s="0" t="n">
-        <v>16.12452</v>
-      </c>
-      <c r="M36" s="0" t="n">
-        <v>12.80625</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.81154</v>
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.94664</v>
+        <v>0.70679</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.67871</v>
+        <v>0.68459</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>0.91083</v>
+        <v>0</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>0.94431</v>
+        <v>0.5577</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0.58052</v>
+        <v>0.53321</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.99487</v>
+        <v>0.99999</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>0.99146</v>
+        <v>0.99796</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.98557</v>
+        <v>0.99855</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>3.31662</v>
+        <v>47.47999</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>3.16228</v>
+        <v>16.12452</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>10.86278</v>
+        <v>12.80625</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.4564</v>
+        <v>0.81154</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.89675</v>
+        <v>0.94664</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0.6204</v>
+        <v>0.67871</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>0.33808</v>
+        <v>0.91083</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0.81879</v>
+        <v>0.94431</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0.45235</v>
+        <v>0.58052</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.99832</v>
+        <v>0.99487</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>0.99799</v>
+        <v>0.99146</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.99843</v>
+        <v>0.98557</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>18.38478</v>
+        <v>3.31662</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>8.12404</v>
+        <v>3.16228</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>21.67948</v>
+        <v>10.86278</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>1</v>
+        <v>0.4564</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0.94274</v>
+        <v>0.89675</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0</v>
+        <v>0.6204</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1</v>
+        <v>0.33808</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0.91325</v>
+        <v>0.81879</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0</v>
+        <v>0.45235</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1</v>
+        <v>0.99832</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>0.99959</v>
+        <v>0.99799</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>1</v>
+        <v>0.99843</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>18.38478</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>1.71616</v>
+        <v>8.12404</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>21.67948</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.94274</v>
+      </c>
+      <c r="D40" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C40" s="0" t="n">
-        <v>0.94125</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>0.33687</v>
-      </c>
       <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0.91325</v>
+      </c>
+      <c r="G40" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>0.92778</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>0.29026</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0.99856</v>
+        <v>0.99959</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.99963</v>
-      </c>
-      <c r="K40" s="0" t="n">
-        <v>17.85773</v>
+        <v>1</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>2.23607</v>
-      </c>
-      <c r="M40" s="0" t="n">
-        <v>6.48074</v>
+        <v>1.71616</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.92534</v>
+        <v>0</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0.95073</v>
+        <v>0.94125</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0.70591</v>
+        <v>0.33687</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>0.93412</v>
+        <v>0</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0.9555</v>
+        <v>0.92778</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0.56461</v>
+        <v>0.29026</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.99936</v>
+        <v>1</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>0.9952</v>
+        <v>0.99856</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0.99944</v>
+        <v>0.99963</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>1.41421</v>
+        <v>17.85773</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>2.44949</v>
+        <v>2.23607</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>11.7047</v>
+        <v>6.48074</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.87002</v>
+        <v>0.92534</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0.94191</v>
+        <v>0.95073</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.73931</v>
+        <v>0.70591</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>0.90542</v>
+        <v>0.93412</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0.93167</v>
+        <v>0.9555</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0.61438</v>
+        <v>0.56461</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.99823</v>
+        <v>0.99936</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>0.99452</v>
+        <v>0.9952</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0.99891</v>
+        <v>0.99944</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>1.41421</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>2.82843</v>
+        <v>2.44949</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>8.60233</v>
+        <v>11.7047</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.91424</v>
+        <v>0.87002</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.88897</v>
+        <v>0.94191</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0.8539</v>
+        <v>0.73931</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>0.98181</v>
+        <v>0.90542</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0.95085</v>
+        <v>0.93167</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0.83923</v>
+        <v>0.61438</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.99912</v>
+        <v>0.99823</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>0.98936</v>
+        <v>0.99452</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>0.9986</v>
+        <v>0.99891</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>1</v>
+        <v>1.41421</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>63.98437</v>
+        <v>2.82843</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>75.90125</v>
+        <v>8.60233</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.9036</v>
+        <v>0.91424</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.89043</v>
+        <v>0.88897</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0.83359</v>
+        <v>0.8539</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>0.92273</v>
+        <v>0.98181</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0.98039</v>
+        <v>0.95085</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>0.77415</v>
+        <v>0.83923</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.99914</v>
+        <v>0.99912</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>0.99142</v>
+        <v>0.98936</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>0.99915</v>
+        <v>0.9986</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>3.60555</v>
+        <v>63.98437</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>5.38516</v>
+        <v>75.90125</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.86211</v>
+        <v>0.9036</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.86103</v>
+        <v>0.89043</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0.70105</v>
+        <v>0.83359</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>0.94911</v>
+        <v>0.92273</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0.81773</v>
+        <v>0.98039</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.54789</v>
+        <v>0.77415</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.99801</v>
+        <v>0.99914</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>0.99411</v>
+        <v>0.99142</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0.99963</v>
+        <v>0.99915</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>1.73205</v>
+        <v>2</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>6.7082</v>
+        <v>3.60555</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>13.56466</v>
+        <v>5.38516</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.57637</v>
+        <v>0.86211</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0.87595</v>
+        <v>0.86103</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0.65983</v>
+        <v>0.70105</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>0.42024</v>
+        <v>0.94911</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>0.97056</v>
+        <v>0.81773</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.54281</v>
+        <v>0.54789</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.99983</v>
+        <v>0.99801</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>0.99076</v>
+        <v>0.99411</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>0.99839</v>
+        <v>0.99963</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>4.12311</v>
+        <v>1.73205</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>4.47214</v>
+        <v>6.7082</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>7.61577</v>
+        <v>13.56466</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.7275</v>
+        <v>0.57637</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>0.89888</v>
+        <v>0.87595</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0.79244</v>
+        <v>0.65983</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>0.75366</v>
+        <v>0.42024</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0.88737</v>
+        <v>0.97056</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0.74826</v>
+        <v>0.54281</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0.99791</v>
+        <v>0.99983</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>0.99541</v>
+        <v>0.99076</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>0.99832</v>
+        <v>0.99839</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>4.36697</v>
+        <v>4.12311</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>5.46953</v>
+        <v>4.47214</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>9.03093</v>
+        <v>7.61577</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0.29763</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>0.07257</v>
+        <v>199</v>
+      </c>
+      <c r="B48" s="5" t="n">
+        <v>0.749220652173913</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>0.881765869565217</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0.20237</v>
+        <v>0.78661</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>0.29281</v>
+        <v>0.75366</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>0.11357</v>
+        <v>0.88737</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0.24202</v>
+        <v>0.74826</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0.00447</v>
+        <v>0.99791</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>0.00394</v>
+        <v>0.99541</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0.00231</v>
+        <v>0.99832</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>8.00341</v>
+        <v>4.36697</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>9.46</v>
+        <v>5.46953</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>13.61741</v>
+        <v>9.03093</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.85129</v>
+        <v>0.29763</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0.91813</v>
+        <v>0.07257</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>0.8539</v>
+        <v>0.20237</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>0.86397</v>
+        <v>0.29281</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0.92681</v>
+        <v>0.11357</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>0.86005</v>
+        <v>0.24202</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0.99914</v>
+        <v>0.00447</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>0.99675</v>
+        <v>0.00394</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>0.99903</v>
+        <v>0.00231</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>1.86603</v>
+        <v>8.00341</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>3</v>
+        <v>9.46</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>4.3589</v>
+        <v>13.61741</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.68017</v>
+        <v>0.85129</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0.88897</v>
+        <v>0.91813</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0.70105</v>
+        <v>0.8539</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>0.76388</v>
+        <v>0.86397</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>0.8605</v>
+        <v>0.92681</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>0.56461</v>
+        <v>0.86005</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>0.99823</v>
+        <v>0.99914</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>0.99411</v>
+        <v>0.99675</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>0.99791</v>
+        <v>0.99903</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>1.41421</v>
+        <v>1.86603</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>2.23607</v>
+        <v>3</v>
       </c>
       <c r="M50" s="0" t="n">
-        <v>2.23607</v>
+        <v>4.3589</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B51" s="0" t="n">
+        <v>0.68017</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.88897</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0.70105</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0.76388</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0.8605</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0.56461</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0.99823</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0.99411</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>0.99791</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>1.41421</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>2.23607</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>2.23607</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="0" t="n">
         <v>0.9036</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C52" s="0" t="n">
         <v>0.94234</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D52" s="0" t="n">
         <v>0.93893</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E52" s="0" t="n">
         <v>0.92134</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F52" s="0" t="n">
         <v>0.9555</v>
       </c>
-      <c r="G51" s="0" t="n">
+      <c r="G52" s="0" t="n">
         <v>0.93505</v>
       </c>
-      <c r="H51" s="0" t="n">
+      <c r="H52" s="0" t="n">
         <v>0.9995</v>
       </c>
-      <c r="I51" s="0" t="n">
+      <c r="I52" s="0" t="n">
         <v>0.99822</v>
       </c>
-      <c r="J51" s="0" t="n">
+      <c r="J52" s="0" t="n">
         <v>0.9995</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="K52" s="0" t="n">
         <v>3.63958</v>
       </c>
-      <c r="L51" s="0" t="n">
+      <c r="L52" s="0" t="n">
         <v>5.55806</v>
       </c>
-      <c r="M51" s="0" t="n">
+      <c r="M52" s="0" t="n">
         <v>10.93094</v>
       </c>
     </row>
